--- a/Outputs/3. Prosumer percentage/Output Files/50/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/50/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2061501.506595265</v>
+        <v>2030927.952870305</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1052067.502128362</v>
+        <v>1052067.502128361</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7652088.021168855</v>
+        <v>7652088.021168854</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.88908314418412</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>27.57115434707802</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -721,13 +721,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.13226388342675</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.334573069846733</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>230.5008272718105</v>
+        <v>114.2971851354983</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -946,7 +946,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>41.45828039849349</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.74736437632237</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.0788983323591</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.1423317900409</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>25.28568094038291</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>111.5698998006161</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>7.431982368242488</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>34.93708590594738</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>116.0788983323591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.4846610119998</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>145.193678475217</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.60674554049297</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>166.8102976960701</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.581457203036731</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.969394354801983</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T13" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>181.1460163406662</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.1290624052083</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9994259906359783</v>
+        <v>46.71451059090273</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>38.60674554049297</v>
       </c>
       <c r="S14" t="n">
-        <v>166.8102976960701</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5525783918492</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>50.66086967501266</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.6454771927232</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.581457203036731</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2984236357804</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>19.29230034810904</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9710143754054</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.1290624052083</v>
+        <v>404.9814698092654</v>
       </c>
       <c r="H17" t="n">
-        <v>321.1578693258294</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.5525783918492</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.2103081069199</v>
+        <v>0.4828783415669386</v>
       </c>
       <c r="T19" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>260.0952901341424</v>
+        <v>284.2984236357804</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -2095,13 +2095,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.1290624052083</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>321.1578693258294</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>93.53254389905483</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>38.60674554049297</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>166.8102976960701</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5525783918492</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>356.1043315010337</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.7327894731058</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70542801794061</v>
+        <v>52.70542801794062</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.64547719272321</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.581457203036731</v>
+        <v>7.581457203036745</v>
       </c>
       <c r="R22" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.2103081069199</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U22" t="n">
         <v>284.2984236357804</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>197.5026836802958</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.26350702861109</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -2326,16 +2326,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.1290624052083</v>
       </c>
       <c r="H23" t="n">
-        <v>321.1578693258294</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5525783918492</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>376.8381406436038</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>268.4019413028081</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.5886265580597</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.736465211598297</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.865470678965</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.581457203036738</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2984236357804</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>48.07115304935551</v>
+        <v>411.1290624052083</v>
       </c>
       <c r="H26" t="n">
-        <v>321.1578693258294</v>
+        <v>279.7240934187147</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5525783918492</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>125.997099750195</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.865470678965</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.5330215267693</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.581457203036738</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.2103081069199</v>
+        <v>185.3446145530979</v>
       </c>
       <c r="T28" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.1290624052083</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>321.1578693258294</v>
       </c>
       <c r="I29" t="n">
         <v>139.7117532857428</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.5525783918492</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2713721811342</v>
+        <v>33.14006823883829</v>
       </c>
       <c r="V29" t="n">
-        <v>155.5556499553032</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.581457203036738</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2984236357804</v>
+        <v>108.4116708826185</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>108.2764487633684</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>52.45929152272262</v>
+        <v>258.2503826310951</v>
       </c>
       <c r="H32" t="n">
         <v>321.1578693258294</v>
@@ -3079,7 +3079,7 @@
         <v>38.60674554049298</v>
       </c>
       <c r="S32" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.5525783918492</v>
@@ -3091,13 +3091,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.581457203036738</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.2103081069199</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2984236357804</v>
+        <v>55.49402759237677</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>70.9859504993851</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>72.88836849193888</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>18.70989162592011</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.5525783918492</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>76.09699615491813</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.581457203036738</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>284.2984236357804</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>107.6549813142479</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>391.2306420240337</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>321.1578693258294</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>38.60674554049298</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>166.8102976960702</v>
@@ -3559,19 +3559,19 @@
         <v>218.5525783918492</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>300.4379432236908</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.2103081069199</v>
+        <v>96.08335229771829</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2984236357804</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>205.0841408833326</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>362.450112534393</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.1290624052083</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>321.1578693258294</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>38.60674554049301</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>225.033009417138</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6112182162509</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>181.354509526674</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>284.2984236357804</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>162.0098793184443</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>119.7311224343488</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.1290624052083</v>
       </c>
       <c r="H44" t="n">
         <v>321.1578693258294</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>38.60674554049301</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>252.2713721811342</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>106.5877542936386</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.1746363119263</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>79.57099387042699</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.0158240472368</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="C2" t="n">
-        <v>237.0158240472368</v>
+        <v>849.5471741289111</v>
       </c>
       <c r="D2" t="n">
-        <v>237.0158240472368</v>
+        <v>476.7232093561347</v>
       </c>
       <c r="E2" t="n">
-        <v>237.0158240472368</v>
+        <v>81.93748946224156</v>
       </c>
       <c r="F2" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4360,22 +4360,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X2" t="n">
-        <v>644.5870563847161</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.0452009605541</v>
+        <v>1231.480932796104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.7947068344101</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>620.7947068344101</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
         <v>620.7947068344101</v>
@@ -4415,13 +4415,13 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>816.8023087047204</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O3" t="n">
         <v>1641.34525599867</v>
@@ -4436,25 +4436,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>2047.543851642359</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1858.858747808344</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.363955406654</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1411.968332854988</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1170.652464088298</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>972.7354759660922</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>780.214149615671</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>567.6849426907208</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>567.6849426907208</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>415.204287716498</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4515,25 +4515,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1234.500838559289</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="C5" t="n">
-        <v>852.5670798920962</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="D5" t="n">
-        <v>852.5670798920962</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="E5" t="n">
-        <v>457.7813599982031</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="F5" t="n">
-        <v>447.6705733487775</v>
+        <v>663.114431452163</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4594,25 +4594,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.574518555815</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="X5" t="n">
-        <v>1628.544378077308</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1628.544378077308</v>
+        <v>1067.268757619608</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.2993471409599</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C6" t="n">
-        <v>459.5956743819146</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D6" t="n">
-        <v>417.7186234743454</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E6" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F6" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
         <v>42.02425610119923</v>
@@ -4646,22 +4646,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>49.73385863501696</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>279.2244111952056</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>645.0462563653213</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1130.079609875548</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N6" t="n">
-        <v>1641.34525599867</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P6" t="n">
         <v>1943.441175274367</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4767,10 +4767,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>342.8310372425075</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.5796247855791</v>
+        <v>352.0483425394087</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.742068589895</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="C8" t="n">
-        <v>831.8083099227024</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D8" t="n">
-        <v>458.984345149926</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4831,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1786.215572286826</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>1786.215572286826</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>1786.215572286826</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1786.215572286826</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X8" t="n">
-        <v>1786.215572286826</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.673716862664</v>
+        <v>237.0158240472368</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>461.879904359699</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>323.041267349911</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>323.041267349911</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4883,13 +4883,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
         <v>737.8796590913968</v>
@@ -4907,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4986,28 +4986,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>389.2717341979267</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>389.2717341979267</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="X10" t="n">
-        <v>342.8310372425075</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.5796247855791</v>
+        <v>102.0814946870265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1392.832680957342</v>
+        <v>1398.369979128528</v>
       </c>
       <c r="C11" t="n">
-        <v>1010.898922290149</v>
+        <v>1016.436220461335</v>
       </c>
       <c r="D11" t="n">
-        <v>1010.898922290149</v>
+        <v>869.7759391732369</v>
       </c>
       <c r="E11" t="n">
-        <v>616.1132023962557</v>
+        <v>474.9902192793438</v>
       </c>
       <c r="F11" t="n">
-        <v>201.962011706426</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="G11" t="n">
-        <v>201.962011706426</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="H11" t="n">
-        <v>201.962011706426</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="I11" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="J11" t="n">
-        <v>201.2242092549788</v>
+        <v>201.2242092549789</v>
       </c>
       <c r="K11" t="n">
-        <v>543.858421845663</v>
+        <v>543.8584218456631</v>
       </c>
       <c r="L11" t="n">
         <v>1018.896467253142</v>
@@ -5053,7 +5053,7 @@
         <v>1553.617481162101</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.720011715478</v>
+        <v>2075.720011715477</v>
       </c>
       <c r="O11" t="n">
         <v>2516.483636910603</v>
@@ -5065,28 +5065,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R11" t="n">
-        <v>3002.954716808541</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S11" t="n">
-        <v>2834.45946661049</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="T11" t="n">
-        <v>2834.45946661049</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="U11" t="n">
-        <v>2834.45946661049</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="V11" t="n">
-        <v>2834.45946661049</v>
+        <v>2536.476905173595</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.924536468091</v>
+        <v>2173.941975031196</v>
       </c>
       <c r="X11" t="n">
-        <v>2089.894395989584</v>
+        <v>1791.91183455269</v>
       </c>
       <c r="Y11" t="n">
-        <v>1696.352540565422</v>
+        <v>1398.369979128528</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>114.076834668242</v>
       </c>
       <c r="I12" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="J12" t="n">
-        <v>161.8237872627273</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="K12" t="n">
-        <v>460.9294434468108</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="L12" t="n">
-        <v>460.9294434468108</v>
+        <v>425.5200628041194</v>
       </c>
       <c r="M12" t="n">
         <v>1019.787317402224</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="C13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="E13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="F13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="G13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="H13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="I13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="J13" t="n">
-        <v>60.8390285895141</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="K13" t="n">
-        <v>136.4347716327914</v>
+        <v>136.4347716327913</v>
       </c>
       <c r="L13" t="n">
         <v>290.7765846288144</v>
@@ -5220,31 +5220,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q13" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R13" t="n">
-        <v>754.7899532592072</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S13" t="n">
-        <v>745.7299589614274</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="T13" t="n">
-        <v>514.1266515018613</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="U13" t="n">
-        <v>514.1266515018613</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="V13" t="n">
-        <v>514.1266515018613</v>
+        <v>427.3701713553749</v>
       </c>
       <c r="W13" t="n">
-        <v>514.1266515018613</v>
+        <v>427.3701713553749</v>
       </c>
       <c r="X13" t="n">
-        <v>282.8741873972371</v>
+        <v>427.3701713553749</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.8390285895141</v>
+        <v>244.3943972738939</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.2816216993886</v>
+        <v>1833.339181387852</v>
       </c>
       <c r="C14" t="n">
-        <v>891.2816216993886</v>
+        <v>1451.40542272066</v>
       </c>
       <c r="D14" t="n">
-        <v>891.2816216993886</v>
+        <v>1078.581457947883</v>
       </c>
       <c r="E14" t="n">
-        <v>891.2816216993886</v>
+        <v>1078.581457947883</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1304310095589</v>
+        <v>664.4302672580534</v>
       </c>
       <c r="G14" t="n">
-        <v>61.8485497921767</v>
+        <v>249.1483860406712</v>
       </c>
       <c r="H14" t="n">
-        <v>60.83902858951409</v>
+        <v>201.962011706426</v>
       </c>
       <c r="I14" t="n">
         <v>60.83902858951409</v>
       </c>
       <c r="J14" t="n">
-        <v>201.2242092549786</v>
+        <v>201.2242092549789</v>
       </c>
       <c r="K14" t="n">
         <v>543.8584218456631</v>
@@ -5287,7 +5287,7 @@
         <v>1018.896467253142</v>
       </c>
       <c r="M14" t="n">
-        <v>1553.6174811621</v>
+        <v>1553.617481162101</v>
       </c>
       <c r="N14" t="n">
         <v>2075.720011715477</v>
@@ -5302,28 +5302,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R14" t="n">
-        <v>3041.951429475705</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="S14" t="n">
-        <v>2873.456179277654</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="T14" t="n">
-        <v>2652.695999083867</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="U14" t="n">
-        <v>2397.876431224135</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="V14" t="n">
-        <v>2060.897157120076</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="W14" t="n">
-        <v>2060.897157120076</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="X14" t="n">
-        <v>1678.86701664157</v>
+        <v>2620.924576330033</v>
       </c>
       <c r="Y14" t="n">
-        <v>1285.325161217408</v>
+        <v>2227.382720905871</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J15" t="n">
-        <v>161.8237872627273</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="K15" t="n">
-        <v>161.8237872627273</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="L15" t="n">
-        <v>212.7173882329688</v>
+        <v>520.266971619339</v>
       </c>
       <c r="M15" t="n">
-        <v>806.9846428310733</v>
+        <v>1114.534226217444</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.375286368253</v>
+        <v>1737.924869754623</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.147704389968</v>
+        <v>2232.697287776338</v>
       </c>
       <c r="P15" t="n">
-        <v>2309.567071572261</v>
+        <v>2522.369746143412</v>
       </c>
       <c r="Q15" t="n">
         <v>2522.369746143412</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>467.6198283745805</v>
+        <v>382.4619022455545</v>
       </c>
       <c r="C16" t="n">
-        <v>416.4472327432546</v>
+        <v>382.4619022455545</v>
       </c>
       <c r="D16" t="n">
-        <v>263.3753395710174</v>
+        <v>229.3900090733172</v>
       </c>
       <c r="E16" t="n">
-        <v>263.3753395710174</v>
+        <v>229.3900090733172</v>
       </c>
       <c r="F16" t="n">
-        <v>263.3753395710174</v>
+        <v>229.3900090733172</v>
       </c>
       <c r="G16" t="n">
-        <v>94.8243590872143</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="H16" t="n">
-        <v>94.8243590872143</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="I16" t="n">
-        <v>94.8243590872143</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="J16" t="n">
         <v>60.83902858951409</v>
@@ -5457,31 +5457,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q16" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R16" t="n">
-        <v>754.7899532592072</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S16" t="n">
-        <v>754.7899532592072</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="T16" t="n">
-        <v>754.7899532592072</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="U16" t="n">
-        <v>467.6198283745805</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="V16" t="n">
-        <v>467.6198283745805</v>
+        <v>668.6183037281553</v>
       </c>
       <c r="W16" t="n">
-        <v>467.6198283745805</v>
+        <v>382.4619022455545</v>
       </c>
       <c r="X16" t="n">
-        <v>467.6198283745805</v>
+        <v>382.4619022455545</v>
       </c>
       <c r="Y16" t="n">
-        <v>467.6198283745805</v>
+        <v>382.4619022455545</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1880.1256945043</v>
+        <v>2033.605854339737</v>
       </c>
       <c r="C17" t="n">
-        <v>1498.191935837107</v>
+        <v>1651.672095672544</v>
       </c>
       <c r="D17" t="n">
-        <v>1498.191935837107</v>
+        <v>1278.848130899768</v>
       </c>
       <c r="E17" t="n">
-        <v>1355.796971821546</v>
+        <v>884.0624110058745</v>
       </c>
       <c r="F17" t="n">
-        <v>941.6457811317167</v>
+        <v>469.9112203160449</v>
       </c>
       <c r="G17" t="n">
-        <v>526.3638999143345</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="H17" t="n">
-        <v>201.962011706426</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="I17" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="J17" t="n">
-        <v>201.2242092549789</v>
+        <v>201.2242092549788</v>
       </c>
       <c r="K17" t="n">
-        <v>543.8584218456631</v>
+        <v>543.858421845663</v>
       </c>
       <c r="L17" t="n">
         <v>1018.896467253142</v>
@@ -5527,7 +5527,7 @@
         <v>1553.617481162101</v>
       </c>
       <c r="N17" t="n">
-        <v>2075.720011715477</v>
+        <v>2075.720011715478</v>
       </c>
       <c r="O17" t="n">
         <v>2516.483636910603</v>
@@ -5539,28 +5539,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R17" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S17" t="n">
-        <v>2834.459466610489</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="T17" t="n">
-        <v>2834.459466610489</v>
+        <v>2821.191249281918</v>
       </c>
       <c r="U17" t="n">
-        <v>2579.639898750758</v>
+        <v>2821.191249281918</v>
       </c>
       <c r="V17" t="n">
-        <v>2242.660624646699</v>
+        <v>2821.191249281918</v>
       </c>
       <c r="W17" t="n">
-        <v>1880.1256945043</v>
+        <v>2821.191249281918</v>
       </c>
       <c r="X17" t="n">
-        <v>1880.1256945043</v>
+        <v>2821.191249281918</v>
       </c>
       <c r="Y17" t="n">
-        <v>1880.1256945043</v>
+        <v>2427.649393857756</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>114.076834668242</v>
       </c>
       <c r="I18" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="J18" t="n">
-        <v>60.83902858951409</v>
+        <v>71.09742479921374</v>
       </c>
       <c r="K18" t="n">
-        <v>359.9446847735977</v>
+        <v>370.2030809832973</v>
       </c>
       <c r="L18" t="n">
-        <v>819.3726278034226</v>
+        <v>829.6310240131222</v>
       </c>
       <c r="M18" t="n">
-        <v>1413.639882401527</v>
+        <v>1423.898278611227</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.147704389968</v>
+        <v>1430.375286368253</v>
       </c>
       <c r="O18" t="n">
         <v>1925.147704389968</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="C19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="D19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="E19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="F19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="G19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="H19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="I19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="J19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="K19" t="n">
-        <v>136.4347716327913</v>
+        <v>136.4347716327914</v>
       </c>
       <c r="L19" t="n">
         <v>290.7765846288144</v>
@@ -5697,28 +5697,28 @@
         <v>895.3886152988916</v>
       </c>
       <c r="R19" t="n">
-        <v>762.4479908380322</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S19" t="n">
-        <v>555.1648513360929</v>
+        <v>894.900859398319</v>
       </c>
       <c r="T19" t="n">
-        <v>323.5615438765267</v>
+        <v>894.900859398319</v>
       </c>
       <c r="U19" t="n">
-        <v>60.83902858951409</v>
+        <v>607.7307345136924</v>
       </c>
       <c r="V19" t="n">
-        <v>60.83902858951409</v>
+        <v>346.995430072115</v>
       </c>
       <c r="W19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="X19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.83902858951409</v>
+        <v>60.8390285895141</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1242.599903946013</v>
+        <v>2085.870784335473</v>
       </c>
       <c r="C20" t="n">
-        <v>1242.599903946013</v>
+        <v>1703.93702566828</v>
       </c>
       <c r="D20" t="n">
-        <v>869.7759391732369</v>
+        <v>1703.93702566828</v>
       </c>
       <c r="E20" t="n">
-        <v>474.9902192793438</v>
+        <v>1309.151305774387</v>
       </c>
       <c r="F20" t="n">
-        <v>60.83902858951409</v>
+        <v>895.0001150845571</v>
       </c>
       <c r="G20" t="n">
-        <v>60.83902858951409</v>
+        <v>479.7182338671749</v>
       </c>
       <c r="H20" t="n">
-        <v>60.83902858951409</v>
+        <v>155.3163456592665</v>
       </c>
       <c r="I20" t="n">
         <v>60.83902858951409</v>
       </c>
       <c r="J20" t="n">
-        <v>201.2242092549789</v>
+        <v>201.2242092549787</v>
       </c>
       <c r="K20" t="n">
-        <v>543.858421845663</v>
+        <v>543.8584218456629</v>
       </c>
       <c r="L20" t="n">
         <v>1018.896467253142</v>
       </c>
       <c r="M20" t="n">
-        <v>1553.6174811621</v>
+        <v>1553.617481162101</v>
       </c>
       <c r="N20" t="n">
         <v>2075.720011715477</v>
@@ -5776,28 +5776,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R20" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S20" t="n">
-        <v>2834.459466610489</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="T20" t="n">
-        <v>2613.699286416702</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="U20" t="n">
-        <v>2358.879718556971</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="V20" t="n">
-        <v>2358.879718556971</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.344788414572</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.344788414572</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="Y20" t="n">
-        <v>1636.643443464033</v>
+        <v>2479.914323853492</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J21" t="n">
-        <v>161.8237872627273</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="K21" t="n">
-        <v>460.9294434468108</v>
+        <v>359.9446847735977</v>
       </c>
       <c r="L21" t="n">
-        <v>460.9294434468108</v>
+        <v>819.3726278034226</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.196698044915</v>
+        <v>1413.639882401527</v>
       </c>
       <c r="N21" t="n">
-        <v>1678.587341582095</v>
+        <v>1430.375286368253</v>
       </c>
       <c r="O21" t="n">
         <v>1925.147704389968</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="C22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="D22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="E22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="F22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="G22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="H22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="I22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
       <c r="J22" t="n">
         <v>60.83902858951409</v>
@@ -5916,46 +5916,46 @@
         <v>136.4347716327913</v>
       </c>
       <c r="L22" t="n">
-        <v>290.7765846288144</v>
+        <v>290.7765846288143</v>
       </c>
       <c r="M22" t="n">
-        <v>465.4258331675541</v>
+        <v>465.4258331675539</v>
       </c>
       <c r="N22" t="n">
-        <v>639.1567704055662</v>
+        <v>639.1567704055661</v>
       </c>
       <c r="O22" t="n">
-        <v>788.706856790392</v>
+        <v>788.7068567903918</v>
       </c>
       <c r="P22" t="n">
-        <v>895.3886152988916</v>
+        <v>895.3886152988914</v>
       </c>
       <c r="Q22" t="n">
-        <v>887.7305777200667</v>
+        <v>887.7305777200664</v>
       </c>
       <c r="R22" t="n">
-        <v>754.7899532592072</v>
+        <v>887.7305777200664</v>
       </c>
       <c r="S22" t="n">
-        <v>547.5068137572679</v>
+        <v>887.7305777200664</v>
       </c>
       <c r="T22" t="n">
-        <v>547.5068137572679</v>
+        <v>656.1272702605003</v>
       </c>
       <c r="U22" t="n">
-        <v>260.3366888726412</v>
+        <v>368.9571453758736</v>
       </c>
       <c r="V22" t="n">
-        <v>260.3366888726412</v>
+        <v>108.2218409342962</v>
       </c>
       <c r="W22" t="n">
-        <v>60.83902858951409</v>
+        <v>108.2218409342962</v>
       </c>
       <c r="X22" t="n">
-        <v>60.83902858951409</v>
+        <v>108.2218409342962</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.83902858951409</v>
+        <v>94.8243590872143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1139.998640237392</v>
+        <v>2039.815543830588</v>
       </c>
       <c r="C23" t="n">
-        <v>758.0648815701991</v>
+        <v>1657.881785163396</v>
       </c>
       <c r="D23" t="n">
-        <v>385.2409167974226</v>
+        <v>1285.057820390619</v>
       </c>
       <c r="E23" t="n">
-        <v>385.2409167974226</v>
+        <v>890.2721004967259</v>
       </c>
       <c r="F23" t="n">
-        <v>385.2409167974226</v>
+        <v>476.1209098068963</v>
       </c>
       <c r="G23" t="n">
-        <v>385.2409167974226</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="H23" t="n">
         <v>60.83902858951409</v>
@@ -5989,10 +5989,10 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J23" t="n">
-        <v>201.2242092549788</v>
+        <v>201.2242092549786</v>
       </c>
       <c r="K23" t="n">
-        <v>543.858421845663</v>
+        <v>543.8584218456629</v>
       </c>
       <c r="L23" t="n">
         <v>1018.896467253142</v>
@@ -6001,7 +6001,7 @@
         <v>1553.617481162101</v>
       </c>
       <c r="N23" t="n">
-        <v>2075.720011715477</v>
+        <v>2075.720011715478</v>
       </c>
       <c r="O23" t="n">
         <v>2516.483636910603</v>
@@ -6013,28 +6013,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R23" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S23" t="n">
-        <v>2834.459466610489</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="T23" t="n">
-        <v>2613.699286416702</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="U23" t="n">
-        <v>2613.699286416702</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="V23" t="n">
-        <v>2276.720012312644</v>
+        <v>2704.972155371646</v>
       </c>
       <c r="W23" t="n">
-        <v>1914.185082170245</v>
+        <v>2704.972155371646</v>
       </c>
       <c r="X23" t="n">
-        <v>1533.540495661554</v>
+        <v>2704.972155371646</v>
       </c>
       <c r="Y23" t="n">
-        <v>1139.998640237392</v>
+        <v>2433.859083348607</v>
       </c>
     </row>
     <row r="24">
@@ -6080,10 +6080,10 @@
         <v>1114.534226217444</v>
       </c>
       <c r="N24" t="n">
-        <v>1643.177960939403</v>
+        <v>1737.924869754623</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.950378961119</v>
+        <v>2232.697287776338</v>
       </c>
       <c r="P24" t="n">
         <v>2522.369746143412</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.83902858951409</v>
+        <v>386.1833316065421</v>
       </c>
       <c r="C25" t="n">
-        <v>60.83902858951409</v>
+        <v>381.3990233119983</v>
       </c>
       <c r="D25" t="n">
-        <v>60.83902858951409</v>
+        <v>381.3990233119983</v>
       </c>
       <c r="E25" t="n">
-        <v>60.83902858951409</v>
+        <v>229.3900090733172</v>
       </c>
       <c r="F25" t="n">
-        <v>60.83902858951409</v>
+        <v>229.3900090733172</v>
       </c>
       <c r="G25" t="n">
         <v>60.83902858951409</v>
@@ -6168,31 +6168,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q25" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R25" t="n">
-        <v>754.7899532592072</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S25" t="n">
-        <v>754.7899532592072</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="T25" t="n">
-        <v>754.7899532592072</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="U25" t="n">
-        <v>754.7899532592072</v>
+        <v>608.218490414265</v>
       </c>
       <c r="V25" t="n">
-        <v>494.0546488176298</v>
+        <v>608.218490414265</v>
       </c>
       <c r="W25" t="n">
-        <v>207.8982473350289</v>
+        <v>608.218490414265</v>
       </c>
       <c r="X25" t="n">
-        <v>207.8982473350289</v>
+        <v>608.218490414265</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.8982473350289</v>
+        <v>386.1833316065421</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1220.772792511903</v>
+        <v>1172.821689808559</v>
       </c>
       <c r="C26" t="n">
-        <v>1220.772792511903</v>
+        <v>1172.821689808559</v>
       </c>
       <c r="D26" t="n">
-        <v>847.9488277391265</v>
+        <v>1172.821689808559</v>
       </c>
       <c r="E26" t="n">
-        <v>847.9488277391265</v>
+        <v>1172.821689808559</v>
       </c>
       <c r="F26" t="n">
-        <v>433.7976370492968</v>
+        <v>758.6704991187294</v>
       </c>
       <c r="G26" t="n">
-        <v>385.2409167974226</v>
+        <v>343.3886179013472</v>
       </c>
       <c r="H26" t="n">
         <v>60.83902858951409</v>
@@ -6226,10 +6226,10 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J26" t="n">
-        <v>201.2242092549788</v>
+        <v>201.2242092549789</v>
       </c>
       <c r="K26" t="n">
-        <v>543.858421845663</v>
+        <v>543.8584218456631</v>
       </c>
       <c r="L26" t="n">
         <v>1018.896467253142</v>
@@ -6250,28 +6250,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R26" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.459466610489</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="T26" t="n">
-        <v>2613.699286416702</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="U26" t="n">
-        <v>2358.879718556971</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="V26" t="n">
-        <v>2358.879718556971</v>
+        <v>2704.972155371646</v>
       </c>
       <c r="W26" t="n">
-        <v>1996.344788414572</v>
+        <v>2342.437225229247</v>
       </c>
       <c r="X26" t="n">
-        <v>1614.314647936065</v>
+        <v>1960.40708475074</v>
       </c>
       <c r="Y26" t="n">
-        <v>1220.772792511903</v>
+        <v>1566.865229326578</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J27" t="n">
-        <v>60.83902858951409</v>
+        <v>71.09742479921374</v>
       </c>
       <c r="K27" t="n">
-        <v>60.83902858951409</v>
+        <v>370.2030809832973</v>
       </c>
       <c r="L27" t="n">
-        <v>520.266971619339</v>
+        <v>829.6310240131222</v>
       </c>
       <c r="M27" t="n">
-        <v>806.9846428310733</v>
+        <v>1423.898278611227</v>
       </c>
       <c r="N27" t="n">
         <v>1430.375286368253</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.1088263169838</v>
+        <v>708.171832922025</v>
       </c>
       <c r="C28" t="n">
-        <v>188.1088263169838</v>
+        <v>538.5558633837053</v>
       </c>
       <c r="D28" t="n">
-        <v>188.1088263169838</v>
+        <v>385.483970211468</v>
       </c>
       <c r="E28" t="n">
-        <v>60.83902858951409</v>
+        <v>385.483970211468</v>
       </c>
       <c r="F28" t="n">
-        <v>60.83902858951409</v>
+        <v>385.483970211468</v>
       </c>
       <c r="G28" t="n">
-        <v>60.83902858951409</v>
+        <v>216.932989727665</v>
       </c>
       <c r="H28" t="n">
         <v>60.83902858951409</v>
@@ -6405,31 +6405,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q28" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R28" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S28" t="n">
-        <v>680.4474382181273</v>
+        <v>708.171832922025</v>
       </c>
       <c r="T28" t="n">
-        <v>448.8441307585612</v>
+        <v>708.171832922025</v>
       </c>
       <c r="U28" t="n">
-        <v>448.8441307585612</v>
+        <v>708.171832922025</v>
       </c>
       <c r="V28" t="n">
-        <v>188.1088263169838</v>
+        <v>708.171832922025</v>
       </c>
       <c r="W28" t="n">
-        <v>188.1088263169838</v>
+        <v>708.171832922025</v>
       </c>
       <c r="X28" t="n">
-        <v>188.1088263169838</v>
+        <v>708.171832922025</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.1088263169838</v>
+        <v>708.171832922025</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1426.180803507531</v>
+        <v>1281.121623354304</v>
       </c>
       <c r="C29" t="n">
-        <v>1426.180803507531</v>
+        <v>899.187864687111</v>
       </c>
       <c r="D29" t="n">
-        <v>1426.180803507531</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="E29" t="n">
-        <v>1031.395083613638</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="F29" t="n">
-        <v>617.2438929238082</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="G29" t="n">
-        <v>201.962011706426</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="H29" t="n">
         <v>201.962011706426</v>
@@ -6487,28 +6487,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R29" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.459466610489</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="T29" t="n">
-        <v>2613.699286416702</v>
+        <v>2821.191249281917</v>
       </c>
       <c r="U29" t="n">
-        <v>2358.879718556971</v>
+        <v>2787.71643287905</v>
       </c>
       <c r="V29" t="n">
-        <v>2201.7527994102</v>
+        <v>2450.737158774992</v>
       </c>
       <c r="W29" t="n">
-        <v>2201.7527994102</v>
+        <v>2450.737158774992</v>
       </c>
       <c r="X29" t="n">
-        <v>1819.722658931693</v>
+        <v>2068.707018296485</v>
       </c>
       <c r="Y29" t="n">
-        <v>1426.180803507531</v>
+        <v>1675.165162872323</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J30" t="n">
-        <v>60.83902858951409</v>
+        <v>71.09742479921374</v>
       </c>
       <c r="K30" t="n">
-        <v>60.83902858951409</v>
+        <v>370.2030809832973</v>
       </c>
       <c r="L30" t="n">
-        <v>212.7173882329688</v>
+        <v>829.6310240131222</v>
       </c>
       <c r="M30" t="n">
-        <v>806.9846428310733</v>
+        <v>1423.898278611227</v>
       </c>
       <c r="N30" t="n">
         <v>1430.375286368253</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>230.4549981278338</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="C31" t="n">
         <v>60.83902858951409</v>
@@ -6642,31 +6642,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q31" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R31" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S31" t="n">
-        <v>887.7305777200667</v>
+        <v>688.1054757969523</v>
       </c>
       <c r="T31" t="n">
-        <v>887.7305777200667</v>
+        <v>456.5021683373861</v>
       </c>
       <c r="U31" t="n">
-        <v>600.5604528354399</v>
+        <v>346.995430072115</v>
       </c>
       <c r="V31" t="n">
-        <v>339.8251483938625</v>
+        <v>346.995430072115</v>
       </c>
       <c r="W31" t="n">
-        <v>339.8251483938625</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="X31" t="n">
-        <v>230.4549981278338</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="Y31" t="n">
-        <v>230.4549981278338</v>
+        <v>60.83902858951409</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1234.31504951073</v>
+        <v>1827.860764508564</v>
       </c>
       <c r="C32" t="n">
-        <v>852.3812908435377</v>
+        <v>1827.860764508564</v>
       </c>
       <c r="D32" t="n">
-        <v>852.3812908435377</v>
+        <v>1455.036799735787</v>
       </c>
       <c r="E32" t="n">
-        <v>852.3812908435377</v>
+        <v>1060.251079841894</v>
       </c>
       <c r="F32" t="n">
-        <v>438.2301001537081</v>
+        <v>646.0998891520642</v>
       </c>
       <c r="G32" t="n">
         <v>385.2409167974226</v>
@@ -6700,52 +6700,52 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J32" t="n">
-        <v>201.2242092549786</v>
+        <v>201.2242092549787</v>
       </c>
       <c r="K32" t="n">
-        <v>543.8584218456626</v>
+        <v>543.8584218456634</v>
       </c>
       <c r="L32" t="n">
-        <v>1018.896467253141</v>
+        <v>1018.896467253142</v>
       </c>
       <c r="M32" t="n">
-        <v>1553.6174811621</v>
+        <v>1553.617481162101</v>
       </c>
       <c r="N32" t="n">
-        <v>2075.720011715477</v>
+        <v>2075.720011715478</v>
       </c>
       <c r="O32" t="n">
-        <v>2516.483636910602</v>
+        <v>2516.483636910603</v>
       </c>
       <c r="P32" t="n">
-        <v>2860.507733726718</v>
+        <v>2860.507733726719</v>
       </c>
       <c r="Q32" t="n">
-        <v>3041.951429475704</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="R32" t="n">
         <v>3002.95471680854</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.459466610489</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="T32" t="n">
-        <v>2613.699286416702</v>
+        <v>2782.194536614753</v>
       </c>
       <c r="U32" t="n">
-        <v>2358.87971855697</v>
+        <v>2527.374968755021</v>
       </c>
       <c r="V32" t="n">
-        <v>2021.900444452911</v>
+        <v>2190.395694650962</v>
       </c>
       <c r="W32" t="n">
-        <v>2021.900444452911</v>
+        <v>1827.860764508564</v>
       </c>
       <c r="X32" t="n">
-        <v>2021.900444452911</v>
+        <v>1827.860764508564</v>
       </c>
       <c r="Y32" t="n">
-        <v>1628.35858902875</v>
+        <v>1827.860764508564</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>161.8237872627273</v>
       </c>
       <c r="K33" t="n">
-        <v>161.8237872627273</v>
+        <v>460.9294434468108</v>
       </c>
       <c r="L33" t="n">
-        <v>621.2517302925521</v>
+        <v>920.3573864766357</v>
       </c>
       <c r="M33" t="n">
-        <v>806.9846428310733</v>
+        <v>920.3573864766357</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.375286368253</v>
+        <v>1543.748030013815</v>
       </c>
       <c r="O33" t="n">
         <v>1925.147704389968</v>
@@ -6864,10 +6864,10 @@
         <v>136.4347716327913</v>
       </c>
       <c r="L34" t="n">
-        <v>290.7765846288143</v>
+        <v>290.7765846288144</v>
       </c>
       <c r="M34" t="n">
-        <v>465.4258331675539</v>
+        <v>465.4258331675541</v>
       </c>
       <c r="N34" t="n">
         <v>639.1567704055662</v>
@@ -6879,22 +6879,22 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q34" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R34" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S34" t="n">
-        <v>680.4474382181273</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="T34" t="n">
-        <v>680.4474382181273</v>
+        <v>663.7853078393255</v>
       </c>
       <c r="U34" t="n">
-        <v>393.2773133335007</v>
+        <v>607.7307345136924</v>
       </c>
       <c r="V34" t="n">
-        <v>132.5420088919233</v>
+        <v>346.995430072115</v>
       </c>
       <c r="W34" t="n">
         <v>60.83902858951409</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1628.35858902875</v>
+        <v>1609.459708598528</v>
       </c>
       <c r="C35" t="n">
-        <v>1628.35858902875</v>
+        <v>1609.459708598528</v>
       </c>
       <c r="D35" t="n">
         <v>1609.459708598528</v>
@@ -6949,7 +6949,7 @@
         <v>1553.617481162101</v>
       </c>
       <c r="N35" t="n">
-        <v>2075.720011715478</v>
+        <v>2075.720011715477</v>
       </c>
       <c r="O35" t="n">
         <v>2516.483636910603</v>
@@ -6961,28 +6961,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R35" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S35" t="n">
-        <v>2834.459466610489</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="T35" t="n">
-        <v>2613.699286416702</v>
+        <v>2821.191249281917</v>
       </c>
       <c r="U35" t="n">
-        <v>2358.879718556971</v>
+        <v>2821.191249281917</v>
       </c>
       <c r="V35" t="n">
-        <v>2021.900444452912</v>
+        <v>2821.191249281917</v>
       </c>
       <c r="W35" t="n">
-        <v>2021.900444452912</v>
+        <v>2458.656319139518</v>
       </c>
       <c r="X35" t="n">
-        <v>2021.900444452912</v>
+        <v>2076.626178661012</v>
       </c>
       <c r="Y35" t="n">
-        <v>1628.35858902875</v>
+        <v>1683.08432323685</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J36" t="n">
-        <v>161.8237872627273</v>
+        <v>71.09742479921374</v>
       </c>
       <c r="K36" t="n">
-        <v>460.9294434468108</v>
+        <v>370.2030809832973</v>
       </c>
       <c r="L36" t="n">
-        <v>920.3573864766357</v>
+        <v>829.6310240131222</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.62464107474</v>
+        <v>1423.898278611227</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.147704389968</v>
+        <v>1430.375286368253</v>
       </c>
       <c r="O36" t="n">
         <v>1925.147704389968</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.7046812712496</v>
+        <v>213.319683563737</v>
       </c>
       <c r="C37" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="D37" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="E37" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="F37" t="n">
         <v>60.83902858951409</v>
@@ -7116,31 +7116,31 @@
         <v>895.3886152988916</v>
       </c>
       <c r="Q37" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="R37" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S37" t="n">
-        <v>887.7305777200667</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="T37" t="n">
-        <v>656.1272702605005</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="U37" t="n">
-        <v>368.9571453758738</v>
+        <v>608.218490414265</v>
       </c>
       <c r="V37" t="n">
-        <v>368.9571453758738</v>
+        <v>608.218490414265</v>
       </c>
       <c r="W37" t="n">
-        <v>368.9571453758738</v>
+        <v>322.0620889316642</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7046812712496</v>
+        <v>213.319683563737</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.7046812712496</v>
+        <v>213.319683563737</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1554.149830927222</v>
+        <v>1316.332086499171</v>
       </c>
       <c r="C38" t="n">
-        <v>1172.216072260029</v>
+        <v>1316.332086499171</v>
       </c>
       <c r="D38" t="n">
-        <v>799.3921074872522</v>
+        <v>1316.332086499171</v>
       </c>
       <c r="E38" t="n">
-        <v>799.3921074872522</v>
+        <v>921.5463666052776</v>
       </c>
       <c r="F38" t="n">
-        <v>385.2409167974226</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="G38" t="n">
-        <v>385.2409167974226</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="H38" t="n">
-        <v>60.83902858951409</v>
+        <v>201.962011706426</v>
       </c>
       <c r="I38" t="n">
         <v>60.83902858951409</v>
       </c>
       <c r="J38" t="n">
-        <v>201.2242092549782</v>
+        <v>201.2242092549791</v>
       </c>
       <c r="K38" t="n">
-        <v>543.8584218456624</v>
+        <v>543.8584218456632</v>
       </c>
       <c r="L38" t="n">
-        <v>1018.896467253141</v>
+        <v>1018.896467253142</v>
       </c>
       <c r="M38" t="n">
-        <v>1553.6174811621</v>
+        <v>1553.617481162101</v>
       </c>
       <c r="N38" t="n">
-        <v>2075.720011715477</v>
+        <v>2075.720011715478</v>
       </c>
       <c r="O38" t="n">
-        <v>2516.483636910602</v>
+        <v>2516.483636910603</v>
       </c>
       <c r="P38" t="n">
         <v>2860.507733726719</v>
@@ -7198,28 +7198,28 @@
         <v>3041.951429475705</v>
       </c>
       <c r="R38" t="n">
-        <v>3002.95471680854</v>
+        <v>3041.951429475705</v>
       </c>
       <c r="S38" t="n">
-        <v>2834.459466610489</v>
+        <v>2873.456179277654</v>
       </c>
       <c r="T38" t="n">
-        <v>2613.699286416702</v>
+        <v>2652.695999083867</v>
       </c>
       <c r="U38" t="n">
-        <v>2613.699286416702</v>
+        <v>2397.876431224135</v>
       </c>
       <c r="V38" t="n">
-        <v>2613.699286416702</v>
+        <v>2060.897157120076</v>
       </c>
       <c r="W38" t="n">
-        <v>2251.164356274303</v>
+        <v>1698.362226977677</v>
       </c>
       <c r="X38" t="n">
-        <v>1947.691686351383</v>
+        <v>1316.332086499171</v>
       </c>
       <c r="Y38" t="n">
-        <v>1554.149830927222</v>
+        <v>1316.332086499171</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>60.83902858951409</v>
       </c>
       <c r="K39" t="n">
-        <v>60.83902858951409</v>
+        <v>350.5114869565876</v>
       </c>
       <c r="L39" t="n">
-        <v>520.266971619339</v>
+        <v>809.9394299864125</v>
       </c>
       <c r="M39" t="n">
-        <v>1114.534226217444</v>
+        <v>1404.206684584517</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.375286368253</v>
+        <v>2027.597328121696</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.147704389968</v>
+        <v>2522.369746143412</v>
       </c>
       <c r="P39" t="n">
-        <v>2309.567071572261</v>
+        <v>2522.369746143412</v>
       </c>
       <c r="Q39" t="n">
         <v>2522.369746143412</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.83902858951409</v>
+        <v>383.5268913000711</v>
       </c>
       <c r="C40" t="n">
-        <v>60.83902858951409</v>
+        <v>213.9109217617514</v>
       </c>
       <c r="D40" t="n">
         <v>60.83902858951409</v>
@@ -7356,28 +7356,28 @@
         <v>895.3886152988916</v>
       </c>
       <c r="R40" t="n">
-        <v>762.4479908380322</v>
+        <v>895.3886152988916</v>
       </c>
       <c r="S40" t="n">
-        <v>555.1648513360929</v>
+        <v>798.3347240890752</v>
       </c>
       <c r="T40" t="n">
-        <v>555.1648513360929</v>
+        <v>798.3347240890752</v>
       </c>
       <c r="U40" t="n">
-        <v>267.9947264514662</v>
+        <v>798.3347240890752</v>
       </c>
       <c r="V40" t="n">
-        <v>267.9947264514662</v>
+        <v>798.3347240890752</v>
       </c>
       <c r="W40" t="n">
-        <v>267.9947264514662</v>
+        <v>798.3347240890752</v>
       </c>
       <c r="X40" t="n">
-        <v>60.83902858951409</v>
+        <v>567.082259984451</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.83902858951409</v>
+        <v>567.082259984451</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1645.029823936695</v>
+        <v>1721.908196603762</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.096065269502</v>
+        <v>1721.908196603762</v>
       </c>
       <c r="D41" t="n">
-        <v>890.2721004967259</v>
+        <v>1355.796971821546</v>
       </c>
       <c r="E41" t="n">
-        <v>890.2721004967259</v>
+        <v>1355.796971821546</v>
       </c>
       <c r="F41" t="n">
-        <v>476.1209098068963</v>
+        <v>941.6457811317167</v>
       </c>
       <c r="G41" t="n">
-        <v>60.83902858951409</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="H41" t="n">
-        <v>60.83902858951409</v>
+        <v>201.962011706426</v>
       </c>
       <c r="I41" t="n">
         <v>60.83902858951409</v>
@@ -7435,28 +7435,28 @@
         <v>3041.951429475704</v>
       </c>
       <c r="R41" t="n">
-        <v>3041.951429475704</v>
+        <v>3002.95471680854</v>
       </c>
       <c r="S41" t="n">
-        <v>3041.951429475704</v>
+        <v>2834.459466610489</v>
       </c>
       <c r="T41" t="n">
-        <v>3041.951429475704</v>
+        <v>2834.459466610489</v>
       </c>
       <c r="U41" t="n">
-        <v>2814.645359357383</v>
+        <v>2834.459466610489</v>
       </c>
       <c r="V41" t="n">
-        <v>2814.645359357383</v>
+        <v>2497.48019250643</v>
       </c>
       <c r="W41" t="n">
-        <v>2814.645359357383</v>
+        <v>2497.48019250643</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.615218878876</v>
+        <v>2115.450052027923</v>
       </c>
       <c r="Y41" t="n">
-        <v>2039.073363454714</v>
+        <v>1721.908196603762</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J42" t="n">
-        <v>161.8237872627272</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="K42" t="n">
-        <v>161.8237872627272</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="L42" t="n">
-        <v>621.2517302925521</v>
+        <v>425.5200628041199</v>
       </c>
       <c r="M42" t="n">
-        <v>1215.518984890657</v>
+        <v>1019.787317402224</v>
       </c>
       <c r="N42" t="n">
-        <v>1838.909628427836</v>
+        <v>1643.177960939403</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.147704389968</v>
+        <v>2137.950378961119</v>
       </c>
       <c r="P42" t="n">
-        <v>2309.567071572261</v>
+        <v>2522.369746143412</v>
       </c>
       <c r="Q42" t="n">
         <v>2522.369746143412</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="C43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="D43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="E43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="F43" t="n">
         <v>60.83902858951409</v>
@@ -7593,28 +7593,28 @@
         <v>895.3886152988913</v>
       </c>
       <c r="R43" t="n">
-        <v>762.4479908380317</v>
+        <v>895.3886152988913</v>
       </c>
       <c r="S43" t="n">
-        <v>762.4479908380317</v>
+        <v>895.3886152988913</v>
       </c>
       <c r="T43" t="n">
-        <v>579.261617578765</v>
+        <v>895.3886152988913</v>
       </c>
       <c r="U43" t="n">
-        <v>292.0914926941383</v>
+        <v>608.2184904142646</v>
       </c>
       <c r="V43" t="n">
-        <v>292.0914926941383</v>
+        <v>608.2184904142646</v>
       </c>
       <c r="W43" t="n">
-        <v>292.0914926941383</v>
+        <v>444.5721476683613</v>
       </c>
       <c r="X43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.83902858951409</v>
+        <v>213.319683563737</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>879.0054092816624</v>
+        <v>1696.403504571686</v>
       </c>
       <c r="C44" t="n">
-        <v>879.0054092816624</v>
+        <v>1314.469745904493</v>
       </c>
       <c r="D44" t="n">
-        <v>506.181444508886</v>
+        <v>941.6457811317167</v>
       </c>
       <c r="E44" t="n">
-        <v>385.2409167974226</v>
+        <v>941.6457811317167</v>
       </c>
       <c r="F44" t="n">
-        <v>385.2409167974226</v>
+        <v>941.6457811317167</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2409167974226</v>
+        <v>526.3638999143345</v>
       </c>
       <c r="H44" t="n">
-        <v>60.83902858951409</v>
+        <v>201.962011706426</v>
       </c>
       <c r="I44" t="n">
         <v>60.83902858951409</v>
@@ -7651,13 +7651,13 @@
         <v>201.2242092549787</v>
       </c>
       <c r="K44" t="n">
-        <v>543.8584218456631</v>
+        <v>543.8584218456627</v>
       </c>
       <c r="L44" t="n">
-        <v>1018.896467253142</v>
+        <v>1018.896467253141</v>
       </c>
       <c r="M44" t="n">
-        <v>1553.617481162101</v>
+        <v>1553.6174811621</v>
       </c>
       <c r="N44" t="n">
         <v>2075.720011715477</v>
@@ -7675,25 +7675,25 @@
         <v>3002.95471680854</v>
       </c>
       <c r="S44" t="n">
-        <v>3002.95471680854</v>
+        <v>2834.459466610489</v>
       </c>
       <c r="T44" t="n">
-        <v>3002.95471680854</v>
+        <v>2834.459466610489</v>
       </c>
       <c r="U44" t="n">
-        <v>2748.135148948808</v>
+        <v>2579.639898750757</v>
       </c>
       <c r="V44" t="n">
-        <v>2411.155874844749</v>
+        <v>2579.639898750757</v>
       </c>
       <c r="W44" t="n">
-        <v>2048.62094470235</v>
+        <v>2471.975500474355</v>
       </c>
       <c r="X44" t="n">
-        <v>1666.590804223844</v>
+        <v>2089.945359995848</v>
       </c>
       <c r="Y44" t="n">
-        <v>1273.048948799682</v>
+        <v>1696.403504571686</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>60.83902858951409</v>
       </c>
       <c r="J45" t="n">
-        <v>161.8237872627272</v>
+        <v>71.09742479921414</v>
       </c>
       <c r="K45" t="n">
-        <v>460.9294434468108</v>
+        <v>370.2030809832977</v>
       </c>
       <c r="L45" t="n">
-        <v>920.3573864766356</v>
+        <v>829.6310240131226</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.62464107474</v>
+        <v>1423.898278611227</v>
       </c>
       <c r="N45" t="n">
-        <v>1521.101648831766</v>
+        <v>1430.375286368253</v>
       </c>
       <c r="O45" t="n">
-        <v>2015.874066853481</v>
+        <v>1925.147704389968</v>
       </c>
       <c r="P45" t="n">
-        <v>2400.293434035774</v>
+        <v>2309.567071572261</v>
       </c>
       <c r="Q45" t="n">
         <v>2522.369746143412</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>230.4549981278338</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="C46" t="n">
         <v>60.83902858951409</v>
@@ -7830,28 +7830,28 @@
         <v>895.3886152988913</v>
       </c>
       <c r="R46" t="n">
-        <v>895.3886152988913</v>
+        <v>815.0138740156317</v>
       </c>
       <c r="S46" t="n">
-        <v>895.3886152988913</v>
+        <v>607.7307345136924</v>
       </c>
       <c r="T46" t="n">
-        <v>895.3886152988913</v>
+        <v>607.7307345136924</v>
       </c>
       <c r="U46" t="n">
-        <v>895.3886152988913</v>
+        <v>607.7307345136924</v>
       </c>
       <c r="V46" t="n">
-        <v>895.3886152988913</v>
+        <v>346.995430072115</v>
       </c>
       <c r="W46" t="n">
-        <v>609.2322138162904</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="X46" t="n">
-        <v>609.2322138162904</v>
+        <v>60.83902858951409</v>
       </c>
       <c r="Y46" t="n">
-        <v>387.1970550085674</v>
+        <v>60.83902858951409</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>543.4252385523532</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>110.8430489735533</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8303,16 +8303,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>461.3271126651593</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8531,16 +8531,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8768,16 +8768,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>61.91353920191213</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>41.67788267788396</v>
       </c>
       <c r="L12" t="n">
-        <v>18.02381957144144</v>
+        <v>386.3885005962953</v>
       </c>
       <c r="M12" t="n">
-        <v>569.6495317207664</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>61.91353920191213</v>
       </c>
       <c r="K15" t="n">
         <v>41.67788267788396</v>
       </c>
       <c r="L15" t="n">
-        <v>69.43149731916017</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>318.2976509337172</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>58.14827752008785</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>61.91353920191214</v>
+        <v>72.2755555753461</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9254,10 +9254,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>510.1321355872883</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>12.25089584589409</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9479,22 +9479,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>61.91353920191215</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>18.02381957144144</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>10.36201637343414</v>
       </c>
       <c r="O21" t="n">
-        <v>261.3017673689988</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9728,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>527.4411383484179</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>318.2976509337173</v>
       </c>
       <c r="Q24" t="n">
         <v>58.14827752008787</v>
@@ -9953,19 +9953,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>61.91353920191214</v>
+        <v>72.27555557534613</v>
       </c>
       <c r="K27" t="n">
-        <v>41.67788267788397</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>294.7604380402827</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10190,19 +10190,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>61.91353920191214</v>
+        <v>72.27555557534613</v>
       </c>
       <c r="K30" t="n">
-        <v>41.67788267788397</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>171.4363040597796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10430,19 +10430,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>41.67788267788397</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>192.7556312996633</v>
+        <v>5.146628735500457</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>397.5030921854429</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.27555557534613</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10676,10 +10676,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>408.1273288466688</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>12.25089584589409</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10904,7 +10904,7 @@
         <v>61.91353920191214</v>
       </c>
       <c r="K39" t="n">
-        <v>41.67788267788397</v>
+        <v>334.2763254729077</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,16 +10913,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>312.4889418119021</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>25.69920813869309</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>58.14827752008787</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>61.91353920191217</v>
       </c>
       <c r="K42" t="n">
         <v>41.67788267788401</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>386.3885005962958</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11153,13 +11153,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>99.36006348441192</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>58.1482775200879</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11299,7 +11299,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425145</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11308,7 +11308,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355798</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>72.27555557534656</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.4576836894191</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.61844311083911</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>223.9020466498317</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>321.1578693258294</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>38.60674554049297</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>252.2713721811342</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>7.581457203036731</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S13" t="n">
-        <v>196.240913752118</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U13" t="n">
         <v>284.2984236357804</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.66879087897951</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.1584433351934</v>
+        <v>274.4433587349266</v>
       </c>
       <c r="I14" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>38.60674554049297</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>166.8102976960701</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.5525783918492</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>117.2589401679238</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>131.7820486407638</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.6454771927232</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>7.581457203036731</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S16" t="n">
-        <v>205.2103081069199</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.2872743849705</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.2984236357804</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>238.8356510490526</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>249.8668483195488</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.147592595942911</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>321.1578693258294</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.7117532857428</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>38.60674554049297</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>166.8102976960701</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5525783918492</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>131.7820486407638</v>
       </c>
       <c r="J19" t="n">
-        <v>33.64547719272321</v>
+        <v>33.6454771927232</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.581457203036738</v>
+        <v>7.581457203036731</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>204.727429765353</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U19" t="n">
-        <v>24.20313350163792</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.1290624052083</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>321.1578693258294</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>139.7117532857428</v>
+        <v>46.17920938668796</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>38.60674554049299</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.5525783918492</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>33.50210536888665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>131.7820486407638</v>
       </c>
       <c r="J22" t="n">
-        <v>33.6454771927232</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T22" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>85.79215378747904</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>206.5513001910346</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.1290624052083</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>321.1578693258294</v>
       </c>
       <c r="I23" t="n">
         <v>139.7117532857428</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>38.60674554049297</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>166.8102976960701</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.5525783918492</v>
       </c>
       <c r="U23" t="n">
         <v>252.2713721811342</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>1.37169843011776</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>121.2044955671122</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.13118843947635</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>163.1833446313382</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.865470678965</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>154.5330215267693</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.581457203036734</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S25" t="n">
         <v>205.2103081069199</v>
@@ -24420,19 +24420,19 @@
         <v>229.2872743849705</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2984236357804</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.0579093558528</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>41.43377590711464</v>
       </c>
       <c r="I26" t="n">
         <v>139.7117532857428</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>38.60674554049298</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.5525783918492</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.49182434609938</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.865470678965</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.5330215267693</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>131.7820486407638</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>7.581457203036738</v>
       </c>
       <c r="R28" t="n">
         <v>131.6112182162509</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>19.86569355382201</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U28" t="n">
         <v>284.2984236357804</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.1290624052083</v>
       </c>
       <c r="H29" t="n">
-        <v>321.1578693258294</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>38.60674554049298</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>219.1313039422959</v>
       </c>
       <c r="V29" t="n">
-        <v>178.0538314077149</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24840,7 +24840,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>7.581457203036738</v>
       </c>
       <c r="R31" t="n">
         <v>131.6112182162509</v>
       </c>
       <c r="S31" t="n">
-        <v>205.2103081069199</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.8867527531619</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6634907002096</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>358.6697708824858</v>
+        <v>152.8786797741132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>7.581457203036738</v>
       </c>
       <c r="R34" t="n">
         <v>131.6112182162509</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.2103081069199</v>
       </c>
       <c r="T34" t="n">
-        <v>229.2872743849705</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.8043960434036</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>212.3088869683898</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>317.2147356309001</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>350.3858334991285</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>38.60674554049298</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>166.8102976960702</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>91.82281368801837</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -25323,7 +25323,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.865470678965</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.581457203036738</v>
       </c>
       <c r="R37" t="n">
         <v>131.6112182162509</v>
@@ -25365,7 +25365,7 @@
         <v>205.2103081069199</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>121.2849581493301</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25393,16 +25393,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>18.77903675889769</v>
       </c>
       <c r="G38" t="n">
         <v>411.1290624052083</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>38.60674554049298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2713721811342</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>77.77189585003083</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -25596,16 +25596,16 @@
         <v>7.581457203036738</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>109.1269558092016</v>
       </c>
       <c r="T40" t="n">
         <v>229.2872743849705</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2984236357804</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25614,7 +25614,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>23.85579858024542</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.645612590655617</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>321.1578693258294</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>38.60674554049301</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.5525783918493</v>
       </c>
       <c r="U41" t="n">
-        <v>27.23836276399621</v>
+        <v>252.2713721811342</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -25797,7 +25797,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.865470678965</v>
@@ -25833,13 +25833,13 @@
         <v>7.581457203036756</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>131.6112182162509</v>
       </c>
       <c r="S43" t="n">
         <v>205.2103081069199</v>
       </c>
       <c r="T43" t="n">
-        <v>47.93276485829645</v>
+        <v>229.2872743849705</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>121.2849581493306</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>271.1067402606054</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1290624052083</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>139.7117532857428</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>166.8102976960702</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.5525783918493</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>252.3218265473364</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.54517868560973</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -26070,10 +26070,10 @@
         <v>7.581457203036756</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6112182162509</v>
+        <v>52.04022434582392</v>
       </c>
       <c r="S46" t="n">
-        <v>205.2103081069199</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.2872743849705</v>
@@ -26082,7 +26082,7 @@
         <v>284.2984236357804</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607924.4916050236</v>
+        <v>607924.4916050232</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607924.4916050234</v>
+        <v>607924.4916050236</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607924.4916050236</v>
+        <v>607924.4916050234</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607924.4916050236</v>
+        <v>607924.4916050234</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607924.4916050236</v>
+        <v>607924.4916050234</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607924.4916050236</v>
+        <v>607924.4916050234</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607924.4916050234</v>
+        <v>607924.4916050236</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575718.0453706366</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="C2" t="n">
-        <v>575718.0453706363</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="D2" t="n">
-        <v>575718.0453706362</v>
+        <v>575718.0453706367</v>
       </c>
       <c r="E2" t="n">
-        <v>414985.1569299428</v>
+        <v>414985.156929943</v>
       </c>
       <c r="F2" t="n">
         <v>414985.1569299427</v>
       </c>
       <c r="G2" t="n">
-        <v>414985.1569299429</v>
+        <v>414985.1569299428</v>
       </c>
       <c r="H2" t="n">
         <v>414985.1569299428</v>
       </c>
       <c r="I2" t="n">
+        <v>414985.1569299427</v>
+      </c>
+      <c r="J2" t="n">
+        <v>414985.1569299428</v>
+      </c>
+      <c r="K2" t="n">
+        <v>414985.1569299428</v>
+      </c>
+      <c r="L2" t="n">
         <v>414985.1569299429</v>
-      </c>
-      <c r="J2" t="n">
-        <v>414985.156929943</v>
-      </c>
-      <c r="K2" t="n">
-        <v>414985.1569299427</v>
-      </c>
-      <c r="L2" t="n">
-        <v>414985.1569299428</v>
       </c>
       <c r="M2" t="n">
         <v>414985.1569299428</v>
@@ -26355,7 +26355,7 @@
         <v>414985.1569299428</v>
       </c>
       <c r="P2" t="n">
-        <v>414985.1569299427</v>
+        <v>414985.1569299428</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58608.95703972522</v>
+        <v>58608.9570397253</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242413.467836753</v>
+        <v>242402.0508631144</v>
       </c>
       <c r="C4" t="n">
-        <v>242413.467836753</v>
+        <v>242402.0508631144</v>
       </c>
       <c r="D4" t="n">
-        <v>242413.467836753</v>
+        <v>242402.0508631144</v>
       </c>
       <c r="E4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="F4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="G4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="H4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="I4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="J4" t="n">
-        <v>55762.74987281415</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="K4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="L4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="M4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="N4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="O4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
       <c r="P4" t="n">
-        <v>55762.74987281414</v>
+        <v>55751.61974224965</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>50651.15268107629</v>
       </c>
       <c r="L5" t="n">
-        <v>50651.15268107628</v>
+        <v>50651.15268107629</v>
       </c>
       <c r="M5" t="n">
         <v>50651.15268107629</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91697.35817944483</v>
+        <v>91708.77515308332</v>
       </c>
       <c r="C6" t="n">
-        <v>267738.5428969719</v>
+        <v>267749.9598706106</v>
       </c>
       <c r="D6" t="n">
-        <v>267738.5428969717</v>
+        <v>267749.9598706109</v>
       </c>
       <c r="E6" t="n">
-        <v>75698.36938504057</v>
+        <v>70351.73656758212</v>
       </c>
       <c r="F6" t="n">
-        <v>308571.2543760523</v>
+        <v>303224.6215585936</v>
       </c>
       <c r="G6" t="n">
-        <v>308571.2543760525</v>
+        <v>303224.6215585938</v>
       </c>
       <c r="H6" t="n">
-        <v>308571.2543760524</v>
+        <v>303224.6215585938</v>
       </c>
       <c r="I6" t="n">
-        <v>308571.2543760525</v>
+        <v>303224.6215585936</v>
       </c>
       <c r="J6" t="n">
-        <v>171128.8235842754</v>
+        <v>165782.1907668166</v>
       </c>
       <c r="K6" t="n">
-        <v>308571.2543760523</v>
+        <v>303224.6215585938</v>
       </c>
       <c r="L6" t="n">
-        <v>308571.2543760524</v>
+        <v>303224.6215585939</v>
       </c>
       <c r="M6" t="n">
-        <v>249962.2973363272</v>
+        <v>244615.6645188684</v>
       </c>
       <c r="N6" t="n">
-        <v>308571.2543760525</v>
+        <v>303224.6215585939</v>
       </c>
       <c r="O6" t="n">
-        <v>308571.2543760524</v>
+        <v>303224.6215585938</v>
       </c>
       <c r="P6" t="n">
-        <v>308571.2543760523</v>
+        <v>303224.6215585938</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>202.4537134424578</v>
       </c>
       <c r="G3" t="n">
+        <v>202.4537134424578</v>
+      </c>
+      <c r="H3" t="n">
         <v>202.4537134424577</v>
-      </c>
-      <c r="H3" t="n">
-        <v>202.4537134424578</v>
       </c>
       <c r="I3" t="n">
         <v>202.4537134424577</v>
@@ -26798,13 +26798,13 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>760.4878573689263</v>
+        <v>760.4878573689261</v>
       </c>
       <c r="F4" t="n">
         <v>760.4878573689261</v>
       </c>
       <c r="G4" t="n">
-        <v>760.4878573689261</v>
+        <v>760.4878573689263</v>
       </c>
       <c r="H4" t="n">
         <v>760.4878573689261</v>
@@ -26819,7 +26819,7 @@
         <v>760.4878573689261</v>
       </c>
       <c r="L4" t="n">
-        <v>760.487857368926</v>
+        <v>760.4878573689261</v>
       </c>
       <c r="M4" t="n">
         <v>760.4878573689261</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>235.1846561039358</v>
+        <v>235.1846561039361</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.2140209786548</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>382.4385244358533</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>98.13922823396037</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.40099082689014</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>145.2066011706682</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>181.4421194085434</v>
+        <v>297.6457615448556</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27678,13 +27678,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>95.99197024119655</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27785,7 +27785,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>85.20848404815828</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27797,7 +27797,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.7359088872865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.960772332798</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>364.3207559295374</v>
       </c>
     </row>
     <row r="9">
@@ -27934,19 +27934,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21.77696026900827</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>208.8778621094304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>176.6355790644019</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28076,10 +28076,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>103.7359088872865</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8138842751455581</v>
+        <v>0.8138842751455583</v>
       </c>
       <c r="H17" t="n">
-        <v>8.335192332834449</v>
+        <v>8.335192332834451</v>
       </c>
       <c r="I17" t="n">
         <v>31.37727351754916</v>
       </c>
       <c r="J17" t="n">
-        <v>69.07741049763537</v>
+        <v>69.07741049763538</v>
       </c>
       <c r="K17" t="n">
         <v>103.5291318645469</v>
@@ -32256,19 +32256,19 @@
         <v>117.0375761212753</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.89034551762494</v>
+        <v>87.89034551762497</v>
       </c>
       <c r="R17" t="n">
-        <v>51.1251580986122</v>
+        <v>51.12515809861222</v>
       </c>
       <c r="S17" t="n">
-        <v>18.54638791987942</v>
+        <v>18.54638791987943</v>
       </c>
       <c r="T17" t="n">
-        <v>3.562778414449682</v>
+        <v>3.562778414449683</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06511074201164463</v>
+        <v>0.06511074201164464</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4354664779705694</v>
+        <v>0.4354664779705695</v>
       </c>
       <c r="H18" t="n">
-        <v>4.205689405663132</v>
+        <v>4.205689405663133</v>
       </c>
       <c r="I18" t="n">
-        <v>14.99303443889899</v>
+        <v>14.993034438899</v>
       </c>
       <c r="J18" t="n">
-        <v>41.14203246475455</v>
+        <v>41.14203246475456</v>
       </c>
       <c r="K18" t="n">
-        <v>70.3182864887827</v>
+        <v>70.31828648878272</v>
       </c>
       <c r="L18" t="n">
-        <v>94.55161399970632</v>
+        <v>94.55161399970635</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3372738261394</v>
+        <v>110.3372738261395</v>
       </c>
       <c r="N18" t="n">
         <v>113.2575731455123</v>
@@ -32332,22 +32332,22 @@
         <v>103.608552765217</v>
       </c>
       <c r="P18" t="n">
-        <v>83.15499788545023</v>
+        <v>83.15499788545026</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.58691392480462</v>
+        <v>55.58691392480464</v>
       </c>
       <c r="R18" t="n">
-        <v>27.03712044803238</v>
+        <v>27.03712044803239</v>
       </c>
       <c r="S18" t="n">
-        <v>8.088598834234036</v>
+        <v>8.088598834234039</v>
       </c>
       <c r="T18" t="n">
         <v>1.755235496732251</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02864911039280063</v>
+        <v>0.02864911039280064</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3650804668634483</v>
+        <v>0.3650804668634484</v>
       </c>
       <c r="H19" t="n">
-        <v>3.24589724174957</v>
+        <v>3.245897241749571</v>
       </c>
       <c r="I19" t="n">
         <v>10.97896531258443</v>
       </c>
       <c r="J19" t="n">
-        <v>25.81118900724579</v>
+        <v>25.8111890072458</v>
       </c>
       <c r="K19" t="n">
-        <v>42.41571242286244</v>
+        <v>42.41571242286245</v>
       </c>
       <c r="L19" t="n">
-        <v>54.27750868258941</v>
+        <v>54.27750868258942</v>
       </c>
       <c r="M19" t="n">
-        <v>57.22802263751307</v>
+        <v>57.22802263751309</v>
       </c>
       <c r="N19" t="n">
-        <v>55.86726817011299</v>
+        <v>55.86726817011301</v>
       </c>
       <c r="O19" t="n">
-        <v>51.60246453448087</v>
+        <v>51.60246453448089</v>
       </c>
       <c r="P19" t="n">
-        <v>44.15482301046649</v>
+        <v>44.15482301046651</v>
       </c>
       <c r="Q19" t="n">
         <v>30.57051072981112</v>
@@ -32420,10 +32420,10 @@
         <v>16.41534535551468</v>
       </c>
       <c r="S19" t="n">
-        <v>6.362356863429365</v>
+        <v>6.362356863429366</v>
       </c>
       <c r="T19" t="n">
-        <v>1.55988926750746</v>
+        <v>1.559889267507461</v>
       </c>
       <c r="U19" t="n">
         <v>0.01991348001073357</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8138842751455583</v>
+        <v>0.8138842751455579</v>
       </c>
       <c r="H20" t="n">
-        <v>8.335192332834451</v>
+        <v>8.335192332834447</v>
       </c>
       <c r="I20" t="n">
-        <v>31.37727351754916</v>
+        <v>31.37727351754915</v>
       </c>
       <c r="J20" t="n">
-        <v>69.07741049763538</v>
+        <v>69.07741049763536</v>
       </c>
       <c r="K20" t="n">
-        <v>103.5291318645469</v>
+        <v>103.5291318645468</v>
       </c>
       <c r="L20" t="n">
-        <v>128.4370427500328</v>
+        <v>128.4370427500327</v>
       </c>
       <c r="M20" t="n">
-        <v>142.9109572281526</v>
+        <v>142.9109572281525</v>
       </c>
       <c r="N20" t="n">
         <v>145.2234059249099</v>
       </c>
       <c r="O20" t="n">
-        <v>137.1303441639313</v>
+        <v>137.1303441639312</v>
       </c>
       <c r="P20" t="n">
         <v>117.0375761212753</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.89034551762497</v>
+        <v>87.89034551762492</v>
       </c>
       <c r="R20" t="n">
-        <v>51.12515809861222</v>
+        <v>51.1251580986122</v>
       </c>
       <c r="S20" t="n">
-        <v>18.54638791987943</v>
+        <v>18.54638791987942</v>
       </c>
       <c r="T20" t="n">
-        <v>3.562778414449683</v>
+        <v>3.562778414449681</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06511074201164464</v>
+        <v>0.06511074201164462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4354664779705695</v>
+        <v>0.4354664779705694</v>
       </c>
       <c r="H21" t="n">
-        <v>4.205689405663133</v>
+        <v>4.205689405663131</v>
       </c>
       <c r="I21" t="n">
-        <v>14.993034438899</v>
+        <v>14.99303443889899</v>
       </c>
       <c r="J21" t="n">
-        <v>41.14203246475456</v>
+        <v>41.14203246475454</v>
       </c>
       <c r="K21" t="n">
-        <v>70.31828648878272</v>
+        <v>70.31828648878269</v>
       </c>
       <c r="L21" t="n">
-        <v>94.55161399970635</v>
+        <v>94.5516139997063</v>
       </c>
       <c r="M21" t="n">
-        <v>110.3372738261395</v>
+        <v>110.3372738261394</v>
       </c>
       <c r="N21" t="n">
         <v>113.2575731455123</v>
@@ -32569,22 +32569,22 @@
         <v>103.608552765217</v>
       </c>
       <c r="P21" t="n">
-        <v>83.15499788545026</v>
+        <v>83.15499788545023</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.58691392480464</v>
+        <v>55.58691392480461</v>
       </c>
       <c r="R21" t="n">
-        <v>27.03712044803239</v>
+        <v>27.03712044803238</v>
       </c>
       <c r="S21" t="n">
-        <v>8.088598834234039</v>
+        <v>8.088598834234036</v>
       </c>
       <c r="T21" t="n">
         <v>1.755235496732251</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02864911039280064</v>
+        <v>0.02864911039280063</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3650804668634484</v>
+        <v>0.3650804668634482</v>
       </c>
       <c r="H22" t="n">
-        <v>3.245897241749571</v>
+        <v>3.24589724174957</v>
       </c>
       <c r="I22" t="n">
         <v>10.97896531258443</v>
       </c>
       <c r="J22" t="n">
-        <v>25.8111890072458</v>
+        <v>25.81118900724579</v>
       </c>
       <c r="K22" t="n">
-        <v>42.41571242286245</v>
+        <v>42.41571242286243</v>
       </c>
       <c r="L22" t="n">
-        <v>54.27750868258942</v>
+        <v>54.2775086825894</v>
       </c>
       <c r="M22" t="n">
-        <v>57.22802263751309</v>
+        <v>57.22802263751306</v>
       </c>
       <c r="N22" t="n">
-        <v>55.86726817011301</v>
+        <v>55.86726817011299</v>
       </c>
       <c r="O22" t="n">
-        <v>51.60246453448089</v>
+        <v>51.60246453448087</v>
       </c>
       <c r="P22" t="n">
-        <v>44.15482301046651</v>
+        <v>44.15482301046649</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.57051072981112</v>
+        <v>30.57051072981111</v>
       </c>
       <c r="R22" t="n">
         <v>16.41534535551468</v>
       </c>
       <c r="S22" t="n">
-        <v>6.362356863429366</v>
+        <v>6.362356863429364</v>
       </c>
       <c r="T22" t="n">
-        <v>1.559889267507461</v>
+        <v>1.55988926750746</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01991348001073357</v>
+        <v>0.01991348001073356</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8138842751455581</v>
+        <v>0.8138842751455582</v>
       </c>
       <c r="H23" t="n">
         <v>8.335192332834449</v>
@@ -32709,7 +32709,7 @@
         <v>31.37727351754916</v>
       </c>
       <c r="J23" t="n">
-        <v>69.07741049763537</v>
+        <v>69.07741049763538</v>
       </c>
       <c r="K23" t="n">
         <v>103.5291318645469</v>
@@ -32730,19 +32730,19 @@
         <v>117.0375761212753</v>
       </c>
       <c r="Q23" t="n">
-        <v>87.89034551762494</v>
+        <v>87.89034551762495</v>
       </c>
       <c r="R23" t="n">
-        <v>51.1251580986122</v>
+        <v>51.12515809861221</v>
       </c>
       <c r="S23" t="n">
-        <v>18.54638791987942</v>
+        <v>18.54638791987943</v>
       </c>
       <c r="T23" t="n">
         <v>3.562778414449682</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06511074201164463</v>
+        <v>0.06511074201164464</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4354664779705694</v>
+        <v>0.4354664779705695</v>
       </c>
       <c r="H24" t="n">
         <v>4.205689405663132</v>
       </c>
       <c r="I24" t="n">
-        <v>14.99303443889899</v>
+        <v>14.993034438899</v>
       </c>
       <c r="J24" t="n">
-        <v>41.14203246475455</v>
+        <v>41.14203246475456</v>
       </c>
       <c r="K24" t="n">
         <v>70.3182864887827</v>
       </c>
       <c r="L24" t="n">
-        <v>94.55161399970632</v>
+        <v>94.55161399970633</v>
       </c>
       <c r="M24" t="n">
-        <v>110.3372738261394</v>
+        <v>110.3372738261395</v>
       </c>
       <c r="N24" t="n">
         <v>113.2575731455123</v>
@@ -32806,16 +32806,16 @@
         <v>103.608552765217</v>
       </c>
       <c r="P24" t="n">
-        <v>83.15499788545023</v>
+        <v>83.15499788545024</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.58691392480462</v>
+        <v>55.58691392480463</v>
       </c>
       <c r="R24" t="n">
-        <v>27.03712044803238</v>
+        <v>27.03712044803239</v>
       </c>
       <c r="S24" t="n">
-        <v>8.088598834234036</v>
+        <v>8.088598834234038</v>
       </c>
       <c r="T24" t="n">
         <v>1.755235496732251</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3650804668634483</v>
+        <v>0.3650804668634484</v>
       </c>
       <c r="H25" t="n">
         <v>3.24589724174957</v>
@@ -32867,7 +32867,7 @@
         <v>10.97896531258443</v>
       </c>
       <c r="J25" t="n">
-        <v>25.81118900724579</v>
+        <v>25.8111890072458</v>
       </c>
       <c r="K25" t="n">
         <v>42.41571242286244</v>
@@ -32876,16 +32876,16 @@
         <v>54.27750868258941</v>
       </c>
       <c r="M25" t="n">
-        <v>57.22802263751307</v>
+        <v>57.22802263751309</v>
       </c>
       <c r="N25" t="n">
-        <v>55.86726817011299</v>
+        <v>55.867268170113</v>
       </c>
       <c r="O25" t="n">
-        <v>51.60246453448087</v>
+        <v>51.60246453448088</v>
       </c>
       <c r="P25" t="n">
-        <v>44.15482301046649</v>
+        <v>44.1548230104665</v>
       </c>
       <c r="Q25" t="n">
         <v>30.57051072981112</v>
@@ -32897,7 +32897,7 @@
         <v>6.362356863429365</v>
       </c>
       <c r="T25" t="n">
-        <v>1.55988926750746</v>
+        <v>1.559889267507461</v>
       </c>
       <c r="U25" t="n">
         <v>0.01991348001073357</v>
@@ -34783,16 +34783,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>436.7100974846449</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.787477306886596</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35023,16 +35023,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>345.8432101035195</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>102.0048067406194</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>302.1269254384682</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>368.3646810248539</v>
       </c>
       <c r="M12" t="n">
-        <v>564.5029029852659</v>
+        <v>600.2699541394995</v>
       </c>
       <c r="N12" t="n">
         <v>629.6875187244235</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>102.0048067406194</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>51.40767774771874</v>
+        <v>464.0686293230555</v>
       </c>
       <c r="M15" t="n">
         <v>600.2699541394995</v>
@@ -35743,10 +35743,10 @@
         <v>499.7701192138543</v>
       </c>
       <c r="P15" t="n">
-        <v>388.3023910932253</v>
+        <v>292.5984427950241</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.952196536516</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>141.8032127933986</v>
+        <v>141.8032127933987</v>
       </c>
       <c r="K17" t="n">
         <v>346.0951642330143</v>
@@ -35895,7 +35895,7 @@
         <v>540.1222362716758</v>
       </c>
       <c r="N17" t="n">
-        <v>527.3762934882591</v>
+        <v>527.3762934882592</v>
       </c>
       <c r="O17" t="n">
         <v>445.2157830253797</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>10.36201637343398</v>
       </c>
       <c r="K18" t="n">
         <v>302.1269254384682</v>
@@ -35974,16 +35974,16 @@
         <v>600.2699541394995</v>
       </c>
       <c r="N18" t="n">
-        <v>516.6745676650922</v>
+        <v>6.54243207780398</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>499.7701192138543</v>
       </c>
       <c r="P18" t="n">
-        <v>388.3023910932252</v>
+        <v>388.3023910932253</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.9521965365159</v>
+        <v>214.952196536516</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>76.35933640735074</v>
+        <v>76.35933640735075</v>
       </c>
       <c r="L19" t="n">
-        <v>155.900821208104</v>
+        <v>155.9008212081041</v>
       </c>
       <c r="M19" t="n">
         <v>176.4133823623633</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>141.8032127933987</v>
+        <v>141.8032127933986</v>
       </c>
       <c r="K20" t="n">
         <v>346.0951642330143</v>
@@ -36132,7 +36132,7 @@
         <v>540.1222362716758</v>
       </c>
       <c r="N20" t="n">
-        <v>527.3762934882592</v>
+        <v>527.3762934882591</v>
       </c>
       <c r="O20" t="n">
         <v>445.2157830253797</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>102.0048067406194</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>302.1269254384682</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>464.0686293230555</v>
       </c>
       <c r="M21" t="n">
-        <v>600.2699541394995</v>
+        <v>600.2699541394994</v>
       </c>
       <c r="N21" t="n">
-        <v>629.6875187244235</v>
+        <v>16.90444845123808</v>
       </c>
       <c r="O21" t="n">
-        <v>249.0508715231047</v>
+        <v>499.7701192138542</v>
       </c>
       <c r="P21" t="n">
-        <v>388.3023910932253</v>
+        <v>388.3023910932252</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.952196536516</v>
+        <v>214.9521965365159</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>76.35933640735075</v>
+        <v>76.35933640735072</v>
       </c>
       <c r="L22" t="n">
-        <v>155.9008212081041</v>
+        <v>155.900821208104</v>
       </c>
       <c r="M22" t="n">
         <v>176.4133823623633</v>
       </c>
       <c r="N22" t="n">
-        <v>175.4857951899114</v>
+        <v>175.4857951899113</v>
       </c>
       <c r="O22" t="n">
         <v>151.0606933180058</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>141.8032127933986</v>
+        <v>141.8032127933987</v>
       </c>
       <c r="K23" t="n">
         <v>346.0951642330143</v>
@@ -36448,13 +36448,13 @@
         <v>600.2699541394995</v>
       </c>
       <c r="N24" t="n">
-        <v>533.9835704262218</v>
+        <v>629.6875187244235</v>
       </c>
       <c r="O24" t="n">
         <v>499.7701192138543</v>
       </c>
       <c r="P24" t="n">
-        <v>388.3023910932252</v>
+        <v>292.5984427950241</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>10.36201637343399</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>302.1269254384682</v>
       </c>
       <c r="L27" t="n">
         <v>464.0686293230555</v>
       </c>
       <c r="M27" t="n">
-        <v>289.6138093047822</v>
+        <v>600.2699541394995</v>
       </c>
       <c r="N27" t="n">
-        <v>629.6875187244235</v>
+        <v>6.542432077803952</v>
       </c>
       <c r="O27" t="n">
         <v>499.7701192138543</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.36201637343399</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>302.1269254384682</v>
       </c>
       <c r="L30" t="n">
-        <v>153.4124844883381</v>
+        <v>464.0686293230555</v>
       </c>
       <c r="M30" t="n">
         <v>600.2699541394995</v>
       </c>
       <c r="N30" t="n">
-        <v>629.6875187244235</v>
+        <v>6.542432077803952</v>
       </c>
       <c r="O30" t="n">
         <v>499.7701192138543</v>
@@ -37071,7 +37071,7 @@
         <v>141.8032127933986</v>
       </c>
       <c r="K32" t="n">
-        <v>346.0951642330143</v>
+        <v>346.0951642330148</v>
       </c>
       <c r="L32" t="n">
         <v>479.8364095025037</v>
@@ -37150,19 +37150,19 @@
         <v>102.0048067406193</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>302.1269254384682</v>
       </c>
       <c r="L33" t="n">
         <v>464.0686293230555</v>
       </c>
       <c r="M33" t="n">
-        <v>187.6090025641628</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>629.6875187244235</v>
       </c>
       <c r="O33" t="n">
-        <v>499.7701192138543</v>
+        <v>385.2521963395488</v>
       </c>
       <c r="P33" t="n">
         <v>388.3023910932252</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>102.0048067406193</v>
+        <v>10.36201637343399</v>
       </c>
       <c r="K36" t="n">
         <v>302.1269254384682</v>
@@ -37396,10 +37396,10 @@
         <v>600.2699541394995</v>
       </c>
       <c r="N36" t="n">
-        <v>414.6697609244727</v>
+        <v>6.542432077803952</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>499.7701192138543</v>
       </c>
       <c r="P36" t="n">
         <v>388.3023910932252</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>292.5984427950237</v>
       </c>
       <c r="L39" t="n">
         <v>464.0686293230555</v>
@@ -37633,16 +37633,16 @@
         <v>600.2699541394995</v>
       </c>
       <c r="N39" t="n">
-        <v>319.0313738897061</v>
+        <v>629.6875187244235</v>
       </c>
       <c r="O39" t="n">
         <v>499.7701192138543</v>
       </c>
       <c r="P39" t="n">
-        <v>388.3023910932252</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.9521965365159</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>102.0048067406193</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>464.0686293230554</v>
+        <v>368.3646810248543</v>
       </c>
       <c r="M42" t="n">
         <v>600.2699541394994</v>
@@ -37873,13 +37873,13 @@
         <v>629.6875187244234</v>
       </c>
       <c r="O42" t="n">
-        <v>87.10916763851777</v>
+        <v>499.7701192138542</v>
       </c>
       <c r="P42" t="n">
         <v>388.3023910932252</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.9521965365159</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>141.8032127933986</v>
       </c>
       <c r="K44" t="n">
-        <v>346.0951642330145</v>
+        <v>346.0951642330142</v>
       </c>
       <c r="L44" t="n">
         <v>479.8364095025036</v>
@@ -38028,7 +38028,7 @@
         <v>540.1222362716757</v>
       </c>
       <c r="N44" t="n">
-        <v>527.3762934882591</v>
+        <v>527.3762934882595</v>
       </c>
       <c r="O44" t="n">
         <v>445.2157830253796</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>102.0048067406193</v>
+        <v>10.3620163734344</v>
       </c>
       <c r="K45" t="n">
         <v>302.1269254384682</v>
@@ -38116,7 +38116,7 @@
         <v>388.3023910932252</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.3094061693312</v>
+        <v>214.9521965365159</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
